--- a/QATestcasesIncubyte.xlsx
+++ b/QATestcasesIncubyte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cca3891ef4fc2976/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{9366EA55-D003-4D1B-8C24-B4A29631F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5376018C-8E10-44C3-B4FD-0E0AF00BF8C6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{9366EA55-D003-4D1B-8C24-B4A29631F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9CB764F-BB5F-4E47-98CB-848EE41C2488}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19360CB5-602E-425D-92B0-E9B02C3BA642}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>TC ID</t>
   </si>
@@ -560,6 +560,90 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify that the sending email with the subject</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Incubyte"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and body </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" QA test for Incubyte", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The email is sent successfully without errors.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Verify the receiver receives the email with the correct subject and body format, The email should received in the inbox with the subject "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Incubyte" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and the body </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" QA test for Incubyte".</t>
     </r>
   </si>
 </sst>
@@ -567,7 +651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,10 +669,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -605,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -654,11 +745,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,6 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,7 +782,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3830841F-FF51-4682-AFE4-6FBD8E6ECAC8}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,23 +1113,23 @@
     <col min="6" max="6" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1191,19 +1294,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1215,7 +1318,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1227,7 +1330,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1239,7 +1342,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1251,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1263,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1275,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1287,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1299,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1311,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1323,7 +1426,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1335,7 +1438,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1347,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1359,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1371,7 +1474,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1383,7 +1486,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1395,7 +1498,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1407,7 +1510,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1419,7 +1522,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1431,7 +1534,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1443,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1455,13 +1558,40 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
